--- a/resource/40.design/440.development/[Saturn]449.crawling/24유산균.xlsx
+++ b/resource/40.design/440.development/[Saturn]449.crawling/24유산균.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449.crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="19" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>상품명</t>
   </si>
@@ -100,78 +100,6 @@
   </si>
   <si>
     <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/04/15/1000001923/1000001923_main_025.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 프리마도필러스 루테리 파우더 5oz (141.75g)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/25/1000000263/1000000263_main_090.jpg</t>
-  </si>
-  <si>
-    <t>가든오브라이프 원스데일리 남성 500억 프로바이오틱스 30식물성캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/07/28//1000002161/1000002161_main_0100.jpg</t>
-  </si>
-  <si>
-    <t>가든오브라이프 프리말 디펜스 키즈 프로바이오틱스 천연바나나맛 2.7 oz (76.8 g)</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/12/1000000563/1000000563_main_034.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 플로라 데일리 프로바이오틱스 60 캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/24/1000000639/1000000639_main_066.jpg</t>
-  </si>
-  <si>
-    <t>자로우 펨 도필러스 60 캡슐 상온보관용 3병 세트</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/01/04/1000001897/1000001897_main_031.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 Gr8-도필러스 60베지캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001205/1000001205_main_029.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 80억 아시도필러스 비피더스 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/05/02/1000001203/1000001203_main_025.jpg</t>
-  </si>
-  <si>
-    <t>나우푸드 유산균 250억 50캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/02/06/1000003023/1000003023_main_059.jpg</t>
-  </si>
-  <si>
-    <t>노르딕내추럴스 플로라 컴포트 프로바이오틱스 30 캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/05/23/1000001633/1000001633_main_012.jpg</t>
-  </si>
-  <si>
-    <t>컨트리라이프 맥시 자임 120캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/29/1000000411/1000000411_main_046.png</t>
-  </si>
-  <si>
-    <t>리뉴라이프 유산균 1000억 얼티밋케어 30베지캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/24/04/16/1000003034/1000003034_main_09.jpg</t>
-  </si>
-  <si>
-    <t>네이처스웨이 프리마도필러스 루테리 유산균 90 캡슐</t>
-  </si>
-  <si>
-    <t>https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/28/1000001197/1472704469914s0.jpg</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1242,136 +1172,40 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1">
-        <v>24200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1">
-        <v>38200</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1">
-        <v>32000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43800</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>93600</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1">
-        <v>14600</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1">
-        <v>23800</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1">
-        <v>35300</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1">
-        <v>41400</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1">
-        <v>24900</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>64800</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>40000</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
